--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H2">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I2">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J2">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.694085898325088</v>
+        <v>0.050199</v>
       </c>
       <c r="N2">
-        <v>0.694085898325088</v>
+        <v>0.100398</v>
       </c>
       <c r="O2">
-        <v>0.5287989059761763</v>
+        <v>0.03278033019113316</v>
       </c>
       <c r="P2">
-        <v>0.5287989059761763</v>
+        <v>0.02558313640211376</v>
       </c>
       <c r="Q2">
-        <v>2.330508767109204</v>
+        <v>0.225959804919</v>
       </c>
       <c r="R2">
-        <v>2.330508767109204</v>
+        <v>0.9038392196760001</v>
       </c>
       <c r="S2">
-        <v>0.1339244610823354</v>
+        <v>0.008842136436117776</v>
       </c>
       <c r="T2">
-        <v>0.1339244610823354</v>
+        <v>0.005455524749700096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +590,1425 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H3">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I3">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J3">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.618484703620065</v>
+        <v>0.7708836666666666</v>
       </c>
       <c r="N3">
-        <v>0.618484703620065</v>
+        <v>2.312651</v>
       </c>
       <c r="O3">
-        <v>0.4712010940238238</v>
+        <v>0.5033929188287568</v>
       </c>
       <c r="P3">
-        <v>0.4712010940238238</v>
+        <v>0.5893032329676366</v>
       </c>
       <c r="Q3">
-        <v>2.07666519027073</v>
+        <v>3.469964001977</v>
       </c>
       <c r="R3">
-        <v>2.07666519027073</v>
+        <v>20.819784011862</v>
       </c>
       <c r="S3">
-        <v>0.1193371466267566</v>
+        <v>0.1357847478444073</v>
       </c>
       <c r="T3">
-        <v>0.1193371466267566</v>
+        <v>0.125667092650438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.88778707649194</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H4">
-        <v>1.88778707649194</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I4">
-        <v>0.1423917567179602</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J4">
-        <v>0.1423917567179602</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.694085898325088</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N4">
-        <v>0.694085898325088</v>
+        <v>0.272241</v>
       </c>
       <c r="O4">
-        <v>0.5287989059761763</v>
+        <v>0.05925848371192178</v>
       </c>
       <c r="P4">
-        <v>0.5287989059761763</v>
+        <v>0.06937168705798773</v>
       </c>
       <c r="Q4">
-        <v>1.3102863888334</v>
+        <v>0.4084777469070001</v>
       </c>
       <c r="R4">
-        <v>1.3102863888334</v>
+        <v>2.450866481442</v>
       </c>
       <c r="S4">
-        <v>0.07529660517248322</v>
+        <v>0.01598432947206876</v>
       </c>
       <c r="T4">
-        <v>0.07529660517248322</v>
+        <v>0.014793297808553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.88778707649194</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H5">
-        <v>1.88778707649194</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I5">
-        <v>0.1423917567179602</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J5">
-        <v>0.1423917567179602</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.618484703620065</v>
+        <v>0.6195459999999999</v>
       </c>
       <c r="N5">
-        <v>0.618484703620065</v>
+        <v>1.239092</v>
       </c>
       <c r="O5">
-        <v>0.4712010940238238</v>
+        <v>0.4045682672681883</v>
       </c>
       <c r="P5">
-        <v>0.4712010940238238</v>
+        <v>0.3157419435722618</v>
       </c>
       <c r="Q5">
-        <v>1.167567430501907</v>
+        <v>2.788750638426</v>
       </c>
       <c r="R5">
-        <v>1.167567430501907</v>
+        <v>11.155002553704</v>
       </c>
       <c r="S5">
-        <v>0.06709515154547702</v>
+        <v>0.1091278762614997</v>
       </c>
       <c r="T5">
-        <v>0.06709515154547702</v>
+        <v>0.06733099337790983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.7871415384493</v>
+        <v>2.087706</v>
       </c>
       <c r="H6">
-        <v>4.7871415384493</v>
+        <v>6.263118</v>
       </c>
       <c r="I6">
-        <v>0.3610838858924802</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J6">
-        <v>0.3610838858924802</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.694085898325088</v>
+        <v>0.050199</v>
       </c>
       <c r="N6">
-        <v>0.694085898325088</v>
+        <v>0.100398</v>
       </c>
       <c r="O6">
-        <v>0.5287989059761763</v>
+        <v>0.03278033019113316</v>
       </c>
       <c r="P6">
-        <v>0.5287989059761763</v>
+        <v>0.02558313640211376</v>
       </c>
       <c r="Q6">
-        <v>3.322687435123927</v>
+        <v>0.104800753494</v>
       </c>
       <c r="R6">
-        <v>3.322687435123927</v>
+        <v>0.6288045209640001</v>
       </c>
       <c r="S6">
-        <v>0.19094076382557</v>
+        <v>0.004101006200346455</v>
       </c>
       <c r="T6">
-        <v>0.19094076382557</v>
+        <v>0.003795430151915884</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.7871415384493</v>
+        <v>2.087706</v>
       </c>
       <c r="H7">
-        <v>4.7871415384493</v>
+        <v>6.263118</v>
       </c>
       <c r="I7">
-        <v>0.3610838858924802</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J7">
-        <v>0.3610838858924802</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.618484703620065</v>
+        <v>0.7708836666666666</v>
       </c>
       <c r="N7">
-        <v>0.618484703620065</v>
+        <v>2.312651</v>
       </c>
       <c r="O7">
-        <v>0.4712010940238238</v>
+        <v>0.5033929188287568</v>
       </c>
       <c r="P7">
-        <v>0.4712010940238238</v>
+        <v>0.5893032329676366</v>
       </c>
       <c r="Q7">
-        <v>2.960773815595118</v>
+        <v>1.609378456202</v>
       </c>
       <c r="R7">
-        <v>2.960773815595118</v>
+        <v>14.484406105818</v>
       </c>
       <c r="S7">
-        <v>0.1701431220669102</v>
+        <v>0.06297732418466125</v>
       </c>
       <c r="T7">
-        <v>0.1701431220669102</v>
+        <v>0.08742709353033348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.22510435732799</v>
+        <v>2.087706</v>
       </c>
       <c r="H8">
-        <v>3.22510435732799</v>
+        <v>6.263118</v>
       </c>
       <c r="I8">
-        <v>0.2432627496804676</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J8">
-        <v>0.2432627496804676</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.694085898325088</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N8">
-        <v>0.694085898325088</v>
+        <v>0.272241</v>
       </c>
       <c r="O8">
-        <v>0.5287989059761763</v>
+        <v>0.05925848371192178</v>
       </c>
       <c r="P8">
-        <v>0.5287989059761763</v>
+        <v>0.06937168705798773</v>
       </c>
       <c r="Q8">
-        <v>2.238499455048153</v>
+        <v>0.1894530563820001</v>
       </c>
       <c r="R8">
-        <v>2.238499455048153</v>
+        <v>1.705077507438</v>
       </c>
       <c r="S8">
-        <v>0.1286370758957877</v>
+        <v>0.007413574168067887</v>
       </c>
       <c r="T8">
-        <v>0.1286370758957877</v>
+        <v>0.01029175581174657</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.087706</v>
+      </c>
+      <c r="H9">
+        <v>6.263118</v>
+      </c>
+      <c r="I9">
+        <v>0.1251057013896629</v>
+      </c>
+      <c r="J9">
+        <v>0.1483567179668515</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6195459999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.239092</v>
+      </c>
+      <c r="O9">
+        <v>0.4045682672681883</v>
+      </c>
+      <c r="P9">
+        <v>0.3157419435722618</v>
+      </c>
+      <c r="Q9">
+        <v>1.293429901476</v>
+      </c>
+      <c r="R9">
+        <v>7.760579408856</v>
+      </c>
+      <c r="S9">
+        <v>0.05061379683658728</v>
+      </c>
+      <c r="T9">
+        <v>0.0468424384728556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01434366666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.043031</v>
+      </c>
+      <c r="I10">
+        <v>0.0008595436708199626</v>
+      </c>
+      <c r="J10">
+        <v>0.001019290700068494</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.050199</v>
+      </c>
+      <c r="N10">
+        <v>0.100398</v>
+      </c>
+      <c r="O10">
+        <v>0.03278033019113316</v>
+      </c>
+      <c r="P10">
+        <v>0.02558313640211376</v>
+      </c>
+      <c r="Q10">
+        <v>0.000720037723</v>
+      </c>
+      <c r="R10">
+        <v>0.004320226338</v>
+      </c>
+      <c r="S10">
+        <v>2.817612534317704E-05</v>
+      </c>
+      <c r="T10">
+        <v>2.607665301325832E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01434366666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.043031</v>
+      </c>
+      <c r="I11">
+        <v>0.0008595436708199626</v>
+      </c>
+      <c r="J11">
+        <v>0.001019290700068494</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7708836666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.312651</v>
+      </c>
+      <c r="O11">
+        <v>0.5033929188287568</v>
+      </c>
+      <c r="P11">
+        <v>0.5893032329676366</v>
+      </c>
+      <c r="Q11">
+        <v>0.01105729835344444</v>
+      </c>
+      <c r="R11">
+        <v>0.09951568518099999</v>
+      </c>
+      <c r="S11">
+        <v>0.0004326881973148451</v>
+      </c>
+      <c r="T11">
+        <v>0.0006006713048842095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01434366666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.043031</v>
+      </c>
+      <c r="I12">
+        <v>0.0008595436708199626</v>
+      </c>
+      <c r="J12">
+        <v>0.001019290700068494</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.272241</v>
+      </c>
+      <c r="O12">
+        <v>0.05925848371192178</v>
+      </c>
+      <c r="P12">
+        <v>0.06937168705798773</v>
+      </c>
+      <c r="Q12">
+        <v>0.001301644719</v>
+      </c>
+      <c r="R12">
+        <v>0.011714802471</v>
+      </c>
+      <c r="S12">
+        <v>5.093525461697021E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.070991546626882E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01434366666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.043031</v>
+      </c>
+      <c r="I13">
+        <v>0.0008595436708199626</v>
+      </c>
+      <c r="J13">
+        <v>0.001019290700068494</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6195459999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.239092</v>
+      </c>
+      <c r="O13">
+        <v>0.4045682672681883</v>
+      </c>
+      <c r="P13">
+        <v>0.3157419435722618</v>
+      </c>
+      <c r="Q13">
+        <v>0.008886561308666665</v>
+      </c>
+      <c r="R13">
+        <v>0.05331936785199999</v>
+      </c>
+      <c r="S13">
+        <v>0.0003477440935449703</v>
+      </c>
+      <c r="T13">
+        <v>0.0003218328267047577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.19545</v>
+      </c>
+      <c r="I14">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J14">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.050199</v>
+      </c>
+      <c r="N14">
+        <v>0.100398</v>
+      </c>
+      <c r="O14">
+        <v>0.03278033019113316</v>
+      </c>
+      <c r="P14">
+        <v>0.02558313640211376</v>
+      </c>
+      <c r="Q14">
+        <v>0.02000346485</v>
+      </c>
+      <c r="R14">
+        <v>0.1200207891</v>
+      </c>
+      <c r="S14">
+        <v>0.0007827647287188538</v>
+      </c>
+      <c r="T14">
+        <v>0.0007244390054774385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.19545</v>
+      </c>
+      <c r="I15">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J15">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7708836666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.312651</v>
+      </c>
+      <c r="O15">
+        <v>0.5033929188287568</v>
+      </c>
+      <c r="P15">
+        <v>0.5893032329676366</v>
+      </c>
+      <c r="Q15">
+        <v>0.3071842931055556</v>
+      </c>
+      <c r="R15">
+        <v>2.76465863795</v>
+      </c>
+      <c r="S15">
+        <v>0.01202056901954478</v>
+      </c>
+      <c r="T15">
+        <v>0.01668733032985123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.19545</v>
+      </c>
+      <c r="I16">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J16">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.272241</v>
+      </c>
+      <c r="O16">
+        <v>0.05925848371192178</v>
+      </c>
+      <c r="P16">
+        <v>0.06937168705798773</v>
+      </c>
+      <c r="Q16">
+        <v>0.03616116705000001</v>
+      </c>
+      <c r="R16">
+        <v>0.32545050345</v>
+      </c>
+      <c r="S16">
+        <v>0.001415039160880692</v>
+      </c>
+      <c r="T16">
+        <v>0.001964401674238365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="H9">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="I9">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="J9">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.618484703620065</v>
-      </c>
-      <c r="N9">
-        <v>0.618484703620065</v>
-      </c>
-      <c r="O9">
-        <v>0.4712010940238238</v>
-      </c>
-      <c r="P9">
-        <v>0.4712010940238238</v>
-      </c>
-      <c r="Q9">
-        <v>1.994677712585782</v>
-      </c>
-      <c r="R9">
-        <v>1.994677712585782</v>
-      </c>
-      <c r="S9">
-        <v>0.1146256737846799</v>
-      </c>
-      <c r="T9">
-        <v>0.1146256737846799</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.19545</v>
+      </c>
+      <c r="I17">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J17">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6195459999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.239092</v>
+      </c>
+      <c r="O17">
+        <v>0.4045682672681883</v>
+      </c>
+      <c r="P17">
+        <v>0.3157419435722618</v>
+      </c>
+      <c r="Q17">
+        <v>0.2468787552333333</v>
+      </c>
+      <c r="R17">
+        <v>1.4812725314</v>
+      </c>
+      <c r="S17">
+        <v>0.0096607254451055</v>
+      </c>
+      <c r="T17">
+        <v>0.008940881055151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H18">
+        <v>19.023016</v>
+      </c>
+      <c r="I18">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J18">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.050199</v>
+      </c>
+      <c r="N18">
+        <v>0.100398</v>
+      </c>
+      <c r="O18">
+        <v>0.03278033019113316</v>
+      </c>
+      <c r="P18">
+        <v>0.02558313640211376</v>
+      </c>
+      <c r="Q18">
+        <v>0.318312126728</v>
+      </c>
+      <c r="R18">
+        <v>1.909872760368</v>
+      </c>
+      <c r="S18">
+        <v>0.01245601736471991</v>
+      </c>
+      <c r="T18">
+        <v>0.0115278889056183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H19">
+        <v>19.023016</v>
+      </c>
+      <c r="I19">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J19">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7708836666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.312651</v>
+      </c>
+      <c r="O19">
+        <v>0.5033929188287568</v>
+      </c>
+      <c r="P19">
+        <v>0.5893032329676366</v>
+      </c>
+      <c r="Q19">
+        <v>4.888177441712888</v>
+      </c>
+      <c r="R19">
+        <v>43.99359697541599</v>
+      </c>
+      <c r="S19">
+        <v>0.1912815063682334</v>
+      </c>
+      <c r="T19">
+        <v>0.2655429770061861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H20">
+        <v>19.023016</v>
+      </c>
+      <c r="I20">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J20">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.272241</v>
+      </c>
+      <c r="O20">
+        <v>0.05925848371192178</v>
+      </c>
+      <c r="P20">
+        <v>0.06937168705798773</v>
+      </c>
+      <c r="Q20">
+        <v>0.575427210984</v>
+      </c>
+      <c r="R20">
+        <v>5.178844898856</v>
+      </c>
+      <c r="S20">
+        <v>0.02251730528090674</v>
+      </c>
+      <c r="T20">
+        <v>0.03125922830688293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H21">
+        <v>19.023016</v>
+      </c>
+      <c r="I21">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J21">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.6195459999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.239092</v>
+      </c>
+      <c r="O21">
+        <v>0.4045682672681883</v>
+      </c>
+      <c r="P21">
+        <v>0.3157419435722618</v>
+      </c>
+      <c r="Q21">
+        <v>3.928544490245332</v>
+      </c>
+      <c r="R21">
+        <v>23.571266941472</v>
+      </c>
+      <c r="S21">
+        <v>0.1537296705958835</v>
+      </c>
+      <c r="T21">
+        <v>0.1422748951158428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.3447175</v>
+      </c>
+      <c r="H22">
+        <v>6.689435</v>
+      </c>
+      <c r="I22">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J22">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.050199</v>
+      </c>
+      <c r="N22">
+        <v>0.100398</v>
+      </c>
+      <c r="O22">
+        <v>0.03278033019113316</v>
+      </c>
+      <c r="P22">
+        <v>0.02558313640211376</v>
+      </c>
+      <c r="Q22">
+        <v>0.1679014737825</v>
+      </c>
+      <c r="R22">
+        <v>0.67160589513</v>
+      </c>
+      <c r="S22">
+        <v>0.006570229335886995</v>
+      </c>
+      <c r="T22">
+        <v>0.004053776936388781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.3447175</v>
+      </c>
+      <c r="H23">
+        <v>6.689435</v>
+      </c>
+      <c r="I23">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J23">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.7708836666666666</v>
+      </c>
+      <c r="N23">
+        <v>2.312651</v>
+      </c>
+      <c r="O23">
+        <v>0.5033929188287568</v>
+      </c>
+      <c r="P23">
+        <v>0.5893032329676366</v>
+      </c>
+      <c r="Q23">
+        <v>2.578388090364166</v>
+      </c>
+      <c r="R23">
+        <v>15.470328542185</v>
+      </c>
+      <c r="S23">
+        <v>0.1008960832145952</v>
+      </c>
+      <c r="T23">
+        <v>0.09337806814594364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.3447175</v>
+      </c>
+      <c r="H24">
+        <v>6.689435</v>
+      </c>
+      <c r="I24">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J24">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.272241</v>
+      </c>
+      <c r="O24">
+        <v>0.05925848371192178</v>
+      </c>
+      <c r="P24">
+        <v>0.06937168705798773</v>
+      </c>
+      <c r="Q24">
+        <v>0.3035230789725</v>
+      </c>
+      <c r="R24">
+        <v>1.821138473835</v>
+      </c>
+      <c r="S24">
+        <v>0.01187730037538073</v>
+      </c>
+      <c r="T24">
+        <v>0.0109922935411006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.3447175</v>
+      </c>
+      <c r="H25">
+        <v>6.689435</v>
+      </c>
+      <c r="I25">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J25">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6195459999999999</v>
+      </c>
+      <c r="N25">
+        <v>1.239092</v>
+      </c>
+      <c r="O25">
+        <v>0.4045682672681883</v>
+      </c>
+      <c r="P25">
+        <v>0.3157419435722618</v>
+      </c>
+      <c r="Q25">
+        <v>2.072206348254999</v>
+      </c>
+      <c r="R25">
+        <v>8.288825393019998</v>
+      </c>
+      <c r="S25">
+        <v>0.08108845403556732</v>
+      </c>
+      <c r="T25">
+        <v>0.05003090272379775</v>
       </c>
     </row>
   </sheetData>
